--- a/OnBoard/output/trust/catch/Catch_Trust_47.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_47.xlsx
@@ -1720,7 +1720,7 @@
         <v>0.119</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I33">
         <v>11.80810810810811</v>
@@ -1966,7 +1966,7 @@
         <v>1.126</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I39">
         <v>11.80810810810811</v>
@@ -2130,7 +2130,7 @@
         <v>0.429</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I43">
         <v>11.80810810810811</v>
